--- a/ftse stocks industies.xlsx
+++ b/ftse stocks industies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFC394F1-C7CB-4B01-B7DC-CE2DF9F116B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B265972-B4BC-4AEA-A9A3-09D7B3973B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{805A65C9-5793-46A0-864E-0F07CEF622CE}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{805A65C9-5793-46A0-864E-0F07CEF622CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>FTSE</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>HFJF</t>
-  </si>
-  <si>
-    <t>DDS</t>
-  </si>
-  <si>
-    <t>ADA</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>DA</t>
-  </si>
-  <si>
-    <t>EFFE</t>
-  </si>
-  <si>
-    <t>WW</t>
-  </si>
-  <si>
-    <t>AAD</t>
+    <t>BREE.L</t>
+  </si>
+  <si>
+    <t>CPG.L</t>
+  </si>
+  <si>
+    <t>VOD.L</t>
+  </si>
+  <si>
+    <t>DGE.L</t>
+  </si>
+  <si>
+    <t>DCC.L</t>
+  </si>
+  <si>
+    <t>BBGI.L</t>
+  </si>
+  <si>
+    <t>REL.L</t>
+  </si>
+  <si>
+    <t>BCPT.L</t>
+  </si>
+  <si>
+    <t>SGE.L</t>
+  </si>
+  <si>
+    <t>UU.L</t>
+  </si>
+  <si>
+    <t>INDV.L</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,42 +520,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>